--- a/EDITED Files Excel .xlsx
+++ b/EDITED Files Excel .xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertbrown/Desktop/Semester 2/Software Applications  Business/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertbrown/Desktop/Semester 2/Software Applications  Business/SAPfiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16740" windowHeight="17460" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27940" windowHeight="17460"/>
   </bookViews>
   <sheets>
     <sheet name="Customers" sheetId="1" r:id="rId1"/>
@@ -32,16 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="145">
-  <si>
-    <t xml:space="preserve">Customer Details </t>
-  </si>
-  <si>
-    <t>MCTV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michael &amp; Doreen Cooney </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="135">
   <si>
     <t>Customer Code</t>
   </si>
@@ -76,9 +67,6 @@
     <t xml:space="preserve">Credit Terms (Days) </t>
   </si>
   <si>
-    <t xml:space="preserve">Supplier Details </t>
-  </si>
-  <si>
     <t>Supplier Code</t>
   </si>
   <si>
@@ -88,9 +76,6 @@
     <t>Credit Limit €</t>
   </si>
   <si>
-    <t xml:space="preserve">Stock Items </t>
-  </si>
-  <si>
     <t>Stock Code</t>
   </si>
   <si>
@@ -319,22 +304,7 @@
     <t>Wholesale Price</t>
   </si>
   <si>
-    <t>Stock Count date at 31st December</t>
-  </si>
-  <si>
     <t>Quantity in Stock</t>
-  </si>
-  <si>
-    <t>Total Stock Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VAT will have to be added at 23% where Sales are made </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stock Value Calculation is based on Cost x Quantity viz. Col C x Col G </t>
-  </si>
-  <si>
-    <t>NET Profit?</t>
   </si>
   <si>
     <t>Email Address</t>
@@ -854,10 +824,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Q13"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection sqref="A1:Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -876,231 +846,399 @@
     <col min="15" max="15" width="12" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="30" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I2">
+        <v>355217</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N2" s="2"/>
+      <c r="O2">
+        <v>30</v>
+      </c>
+      <c r="P2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I3">
+        <v>352123</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K3" t="s">
+        <v>116</v>
+      </c>
+      <c r="M3" t="s">
+        <v>122</v>
+      </c>
+      <c r="N3" s="2">
+        <v>110000</v>
+      </c>
+      <c r="O3">
+        <v>30</v>
+      </c>
+      <c r="P3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="3" t="s">
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>109</v>
+      </c>
+      <c r="I4">
+        <v>342568</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K4" t="s">
+        <v>117</v>
+      </c>
+      <c r="M4" t="s">
+        <v>122</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="O4">
+        <v>30</v>
+      </c>
+      <c r="P4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I5">
+        <v>355249</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K5" t="s">
         <v>116</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>131</v>
+      <c r="M5" t="s">
+        <v>122</v>
+      </c>
+      <c r="N5" s="2">
+        <v>110000</v>
+      </c>
+      <c r="O5">
+        <v>30</v>
+      </c>
+      <c r="P5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" t="s">
-        <v>31</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
+        <v>111</v>
+      </c>
+      <c r="I6">
+        <v>351478</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="K6" t="s">
         <v>117</v>
       </c>
-      <c r="I6">
-        <v>355217</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="K6" t="s">
-        <v>126</v>
-      </c>
       <c r="M6" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6">
         <v>30</v>
       </c>
       <c r="P6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Q6" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
         <v>38</v>
       </c>
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>46</v>
-      </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="I7">
-        <v>352123</v>
+        <v>333124</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="K7" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="M7" t="s">
-        <v>132</v>
-      </c>
-      <c r="N7" s="2">
-        <v>110000</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="N7" s="2"/>
       <c r="O7">
         <v>30</v>
       </c>
       <c r="P7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="Q7" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="I8">
-        <v>342568</v>
+        <v>387465</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="K8" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="M8" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8">
         <v>30</v>
       </c>
       <c r="P8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Q8" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="I9">
-        <v>355249</v>
+        <v>582164</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="K9" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="M9" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="N9" s="2">
         <v>110000</v>
@@ -1109,201 +1247,22 @@
         <v>30</v>
       </c>
       <c r="P9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="Q9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" t="s">
-        <v>121</v>
-      </c>
-      <c r="I10">
-        <v>351478</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="K10" t="s">
-        <v>127</v>
-      </c>
-      <c r="M10" t="s">
-        <v>132</v>
-      </c>
-      <c r="N10" s="2"/>
-      <c r="O10">
-        <v>30</v>
-      </c>
-      <c r="P10" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" t="s">
-        <v>122</v>
-      </c>
-      <c r="I11">
-        <v>333124</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="K11" t="s">
-        <v>127</v>
-      </c>
-      <c r="M11" t="s">
-        <v>132</v>
-      </c>
-      <c r="N11" s="2"/>
-      <c r="O11">
-        <v>30</v>
-      </c>
-      <c r="P11" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H12" t="s">
-        <v>123</v>
-      </c>
-      <c r="I12">
-        <v>387465</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="K12" t="s">
-        <v>127</v>
-      </c>
-      <c r="M12" t="s">
-        <v>132</v>
-      </c>
-      <c r="N12" s="2"/>
-      <c r="O12">
-        <v>30</v>
-      </c>
-      <c r="P12" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H13" t="s">
-        <v>124</v>
-      </c>
-      <c r="I13">
-        <v>582164</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="K13" t="s">
-        <v>126</v>
-      </c>
-      <c r="M13" t="s">
-        <v>132</v>
-      </c>
-      <c r="N13" s="2">
-        <v>110000</v>
-      </c>
-      <c r="O13">
-        <v>30</v>
-      </c>
-      <c r="P13" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J6" r:id="rId1"/>
-    <hyperlink ref="J7" r:id="rId2"/>
-    <hyperlink ref="J8" r:id="rId3"/>
-    <hyperlink ref="J9" r:id="rId4"/>
-    <hyperlink ref="J10" r:id="rId5"/>
-    <hyperlink ref="J11" r:id="rId6"/>
-    <hyperlink ref="J12" r:id="rId7"/>
-    <hyperlink ref="J13" r:id="rId8"/>
+    <hyperlink ref="J2" r:id="rId1"/>
+    <hyperlink ref="J3" r:id="rId2"/>
+    <hyperlink ref="J4" r:id="rId3"/>
+    <hyperlink ref="J5" r:id="rId4"/>
+    <hyperlink ref="J6" r:id="rId5"/>
+    <hyperlink ref="J7" r:id="rId6"/>
+    <hyperlink ref="J8" r:id="rId7"/>
+    <hyperlink ref="J9" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1311,10 +1270,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L9"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView zoomScale="81" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1327,248 +1286,235 @@
     <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:12" ht="45" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2">
+        <v>5523541</v>
+      </c>
+      <c r="J2">
+        <v>60</v>
+      </c>
+      <c r="K2" t="s">
+        <v>124</v>
+      </c>
+      <c r="L2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3">
+        <v>557889</v>
+      </c>
+      <c r="J3">
+        <v>60</v>
+      </c>
+      <c r="K3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>133</v>
+      <c r="D4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4">
+        <v>2823871</v>
+      </c>
+      <c r="J4">
+        <v>60</v>
+      </c>
+      <c r="K4" t="s">
+        <v>126</v>
+      </c>
+      <c r="L4" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="I5">
-        <v>5523541</v>
+        <v>4586921</v>
       </c>
       <c r="J5">
         <v>60</v>
       </c>
       <c r="K5" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="L5" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>66</v>
+        <v>76</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="I6">
-        <v>557889</v>
+        <v>2826655</v>
       </c>
       <c r="J6">
         <v>60</v>
       </c>
       <c r="K6" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="L6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I7">
-        <v>2823871</v>
-      </c>
-      <c r="J7">
-        <v>60</v>
-      </c>
-      <c r="K7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I8">
-        <v>4586921</v>
-      </c>
-      <c r="J8">
-        <v>60</v>
-      </c>
-      <c r="K8" t="s">
-        <v>137</v>
-      </c>
-      <c r="L8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I9">
-        <v>2826655</v>
-      </c>
-      <c r="J9">
-        <v>60</v>
-      </c>
-      <c r="K9" t="s">
-        <v>138</v>
-      </c>
-      <c r="L9" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1"/>
-    <hyperlink ref="C6" r:id="rId2"/>
-    <hyperlink ref="C7" r:id="rId3"/>
-    <hyperlink ref="C8" r:id="rId4" display="samsung@gmail,.com"/>
-    <hyperlink ref="C9" r:id="rId5"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4" display="samsung@gmail,.com"/>
+    <hyperlink ref="C6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1576,10 +1522,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O23"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="125" zoomScaleNormal="126" zoomScalePageLayoutView="126" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView zoomScale="125" zoomScaleNormal="126" zoomScalePageLayoutView="126" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1598,113 +1544,256 @@
     <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:15" ht="45" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="4" spans="1:15" ht="45" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="A2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="6">
+        <v>600</v>
+      </c>
+      <c r="D2" s="6">
+        <v>900</v>
+      </c>
+      <c r="E2" s="6">
+        <v>800</v>
+      </c>
+      <c r="F2" s="6">
+        <v>700</v>
+      </c>
+      <c r="G2" s="2">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <f>SUM(C2*G2)</f>
+        <v>6000</v>
+      </c>
+      <c r="I2" s="6">
+        <v>15</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="6">
+        <f>D2-C2</f>
+        <v>300</v>
+      </c>
+      <c r="L2">
+        <f>SUM(D2)*1.23</f>
+        <v>1107</v>
+      </c>
+      <c r="M2" s="6">
+        <f>SUM(E2-C2)</f>
+        <v>200</v>
+      </c>
+      <c r="N2" s="6">
+        <f>SUM(F2-C2)</f>
+        <v>100</v>
+      </c>
+      <c r="O2" s="9">
+        <v>42735</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="6">
+        <v>300</v>
+      </c>
+      <c r="D3" s="6">
+        <v>450</v>
+      </c>
+      <c r="E3" s="6">
+        <v>350</v>
+      </c>
+      <c r="F3" s="6">
+        <v>330</v>
+      </c>
+      <c r="G3" s="2">
+        <v>8</v>
+      </c>
+      <c r="H3">
+        <f>SUM(C3*G3)</f>
+        <v>2400</v>
+      </c>
+      <c r="I3" s="6">
+        <v>10</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="6">
+        <f t="shared" ref="K3:K6" si="0">D3-C3</f>
+        <v>150</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L6" si="1">SUM(D3)*1.23</f>
+        <v>553.5</v>
+      </c>
+      <c r="M3" s="6">
+        <f>SUM(E3-C3)</f>
+        <v>50</v>
+      </c>
+      <c r="N3" s="6">
+        <f>SUM(F3-C3)</f>
+        <v>30</v>
+      </c>
+      <c r="O3" s="9">
+        <v>42735</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="6">
+        <v>160</v>
+      </c>
+      <c r="D4" s="6">
+        <v>240</v>
+      </c>
+      <c r="E4" s="6">
+        <v>200</v>
+      </c>
+      <c r="F4" s="6">
+        <v>180</v>
+      </c>
+      <c r="G4" s="2">
+        <v>15</v>
+      </c>
+      <c r="H4">
+        <f>SUM(C4*G4)</f>
+        <v>2400</v>
+      </c>
+      <c r="I4" s="6">
+        <v>25</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="1"/>
+        <v>295.2</v>
+      </c>
+      <c r="M4" s="6">
+        <f>SUM(E4-C4)</f>
+        <v>40</v>
+      </c>
+      <c r="N4" s="6">
+        <f>SUM(F4-C4)</f>
         <v>20</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>139</v>
+      <c r="O4" s="9">
+        <v>42735</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C5" s="6">
-        <v>600</v>
+        <v>21</v>
       </c>
       <c r="D5" s="6">
-        <v>900</v>
+        <v>32</v>
       </c>
       <c r="E5" s="6">
-        <v>800</v>
+        <v>28</v>
       </c>
       <c r="F5" s="6">
-        <v>700</v>
+        <v>24</v>
       </c>
       <c r="G5" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H5">
         <f>SUM(C5*G5)</f>
-        <v>6000</v>
+        <v>231</v>
       </c>
       <c r="I5" s="6">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5" s="6">
-        <f>D5-C5</f>
-        <v>300</v>
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="L5">
-        <f>SUM(D5)*1.23</f>
-        <v>1107</v>
+        <f t="shared" si="1"/>
+        <v>39.36</v>
       </c>
       <c r="M5" s="6">
         <f>SUM(E5-C5)</f>
-        <v>200</v>
+        <v>7</v>
       </c>
       <c r="N5" s="6">
         <f>SUM(F5-C5)</f>
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="O5" s="9">
         <v>42735</v>
@@ -1712,242 +1801,64 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C6" s="6">
-        <v>300</v>
+        <v>130</v>
       </c>
       <c r="D6" s="6">
-        <v>450</v>
+        <v>195</v>
       </c>
       <c r="E6" s="6">
-        <v>350</v>
+        <v>160</v>
       </c>
       <c r="F6" s="6">
-        <v>330</v>
+        <v>150</v>
       </c>
       <c r="G6" s="2">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="H6">
         <f>SUM(C6*G6)</f>
-        <v>2400</v>
+        <v>4160</v>
       </c>
       <c r="I6" s="6">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6" s="6">
-        <f t="shared" ref="K6:K9" si="0">D6-C6</f>
-        <v>150</v>
+        <f t="shared" si="0"/>
+        <v>65</v>
       </c>
       <c r="L6">
-        <f t="shared" ref="L6:L9" si="1">SUM(D6)*1.23</f>
-        <v>553.5</v>
+        <f t="shared" si="1"/>
+        <v>239.85</v>
       </c>
       <c r="M6" s="6">
         <f>SUM(E6-C6)</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N6" s="6">
         <f>SUM(F6-C6)</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="O6" s="9">
         <v>42735</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" s="6">
-        <v>160</v>
-      </c>
-      <c r="D7" s="6">
-        <v>240</v>
-      </c>
-      <c r="E7" s="6">
-        <v>200</v>
-      </c>
-      <c r="F7" s="6">
-        <v>180</v>
-      </c>
-      <c r="G7" s="2">
-        <v>15</v>
-      </c>
-      <c r="H7">
-        <f>SUM(C7*G7)</f>
-        <v>2400</v>
-      </c>
-      <c r="I7" s="6">
-        <v>25</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7" s="6">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="1"/>
-        <v>295.2</v>
-      </c>
-      <c r="M7" s="6">
-        <f>SUM(E7-C7)</f>
-        <v>40</v>
-      </c>
-      <c r="N7" s="6">
-        <f>SUM(F7-C7)</f>
-        <v>20</v>
-      </c>
-      <c r="O7" s="9">
-        <v>42735</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C8" s="6">
-        <v>21</v>
-      </c>
-      <c r="D8" s="6">
-        <v>32</v>
-      </c>
-      <c r="E8" s="6">
-        <v>28</v>
-      </c>
-      <c r="F8" s="6">
-        <v>24</v>
-      </c>
-      <c r="G8" s="2">
-        <v>11</v>
-      </c>
-      <c r="H8">
-        <f>SUM(C8*G8)</f>
-        <v>231</v>
-      </c>
-      <c r="I8" s="6">
-        <v>25</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8" s="6">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="1"/>
-        <v>39.36</v>
-      </c>
-      <c r="M8" s="6">
-        <f>SUM(E8-C8)</f>
-        <v>7</v>
-      </c>
-      <c r="N8" s="6">
-        <f>SUM(F8-C8)</f>
-        <v>3</v>
-      </c>
-      <c r="O8" s="9">
-        <v>42735</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" s="6">
-        <v>130</v>
-      </c>
-      <c r="D9" s="6">
-        <v>195</v>
-      </c>
-      <c r="E9" s="6">
-        <v>160</v>
-      </c>
-      <c r="F9" s="6">
-        <v>150</v>
-      </c>
-      <c r="G9" s="2">
-        <v>32</v>
-      </c>
-      <c r="H9">
-        <f>SUM(C9*G9)</f>
-        <v>4160</v>
-      </c>
-      <c r="I9" s="6">
-        <v>40</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9" s="6">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="1"/>
-        <v>239.85</v>
-      </c>
-      <c r="M9" s="6">
-        <f>SUM(E9-C9)</f>
-        <v>30</v>
-      </c>
-      <c r="N9" s="6">
-        <f>SUM(F9-C9)</f>
-        <v>20</v>
-      </c>
-      <c r="O9" s="9">
-        <v>42735</v>
-      </c>
-    </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="F11" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C23" s="7" t="s">
-        <v>100</v>
-      </c>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C23" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
